--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220405.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220405.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="274">
   <si>
     <t>사이트</t>
   </si>
@@ -1430,6 +1430,12 @@
       <c r="F9" t="s">
         <v>182</v>
       </c>
+      <c r="G9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H9" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
@@ -2151,6 +2157,12 @@
       </c>
       <c r="F37" t="s">
         <v>197</v>
+      </c>
+      <c r="G37" t="s">
+        <v>238</v>
+      </c>
+      <c r="H37" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:8">

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220405.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220405.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>vibe</t>
+    <t>Vibe</t>
   </si>
   <si>
     <t>TOMBOY</t>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220405.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220405.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="274">
   <si>
     <t>사이트</t>
   </si>
@@ -1197,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3103,22 +3103,22 @@
         <v>44656</v>
       </c>
       <c r="C74">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E74" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F74" t="s">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="G74" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H74" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3129,19 +3129,19 @@
         <v>44656</v>
       </c>
       <c r="C75">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E75" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F75" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="G75" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="H75" t="s">
         <v>258</v>
@@ -3155,22 +3155,22 @@
         <v>44656</v>
       </c>
       <c r="C76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E76" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="F76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G76" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="H76" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3181,22 +3181,22 @@
         <v>44656</v>
       </c>
       <c r="C77">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E77" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="F77" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G77" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="H77" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3207,19 +3207,19 @@
         <v>44656</v>
       </c>
       <c r="C78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E78" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="F78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G78" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="H78" t="s">
         <v>258</v>
@@ -3233,19 +3233,19 @@
         <v>44656</v>
       </c>
       <c r="C79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E79" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="F79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G79" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H79" t="s">
         <v>258</v>
@@ -3259,19 +3259,19 @@
         <v>44656</v>
       </c>
       <c r="C80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E80" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F80" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G80" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="H80" t="s">
         <v>258</v>
@@ -3285,19 +3285,19 @@
         <v>44656</v>
       </c>
       <c r="C81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E81" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="F81" t="s">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="H81" t="s">
         <v>258</v>
@@ -3311,19 +3311,19 @@
         <v>44656</v>
       </c>
       <c r="C82">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F82" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="G82" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="H82" t="s">
         <v>258</v>
@@ -3337,22 +3337,22 @@
         <v>44656</v>
       </c>
       <c r="C83">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E83" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="F83" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G83" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H83" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3363,22 +3363,16 @@
         <v>44656</v>
       </c>
       <c r="C84">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E84" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>222</v>
-      </c>
-      <c r="G84" t="s">
-        <v>249</v>
-      </c>
-      <c r="H84" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3389,16 +3383,22 @@
         <v>44656</v>
       </c>
       <c r="C85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F85" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="G85" t="s">
+        <v>273</v>
+      </c>
+      <c r="H85" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3409,22 +3409,22 @@
         <v>44656</v>
       </c>
       <c r="C86">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E86" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
       <c r="G86" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="H86" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3435,19 +3435,19 @@
         <v>44656</v>
       </c>
       <c r="C87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="F87" t="s">
-        <v>93</v>
+        <v>225</v>
       </c>
       <c r="G87" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H87" t="s">
         <v>258</v>
@@ -3461,19 +3461,19 @@
         <v>44656</v>
       </c>
       <c r="C88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E88" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F88" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G88" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="H88" t="s">
         <v>258</v>
@@ -3487,19 +3487,19 @@
         <v>44656</v>
       </c>
       <c r="C89">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E89" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G89" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="H89" t="s">
         <v>258</v>
@@ -3513,19 +3513,19 @@
         <v>44656</v>
       </c>
       <c r="C90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E90" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="G90" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="H90" t="s">
         <v>258</v>
@@ -3539,22 +3539,22 @@
         <v>44656</v>
       </c>
       <c r="C91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F91" t="s">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="G91" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="H91" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3565,22 +3565,16 @@
         <v>44656</v>
       </c>
       <c r="C92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E92" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F92" t="s">
-        <v>228</v>
-      </c>
-      <c r="G92" t="s">
-        <v>252</v>
-      </c>
-      <c r="H92" t="s">
-        <v>252</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3591,16 +3585,22 @@
         <v>44656</v>
       </c>
       <c r="C93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E93" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="F93" t="s">
-        <v>99</v>
+        <v>229</v>
+      </c>
+      <c r="G93" t="s">
+        <v>259</v>
+      </c>
+      <c r="H93" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3611,19 +3611,19 @@
         <v>44656</v>
       </c>
       <c r="C94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E94" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="F94" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="G94" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="H94" t="s">
         <v>258</v>
@@ -3637,19 +3637,19 @@
         <v>44656</v>
       </c>
       <c r="C95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E95" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F95" t="s">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="G95" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H95" t="s">
         <v>258</v>
@@ -3663,19 +3663,19 @@
         <v>44656</v>
       </c>
       <c r="C96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E96" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="F96" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G96" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H96" t="s">
         <v>258</v>
@@ -3689,22 +3689,16 @@
         <v>44656</v>
       </c>
       <c r="C97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E97" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="F97" t="s">
-        <v>231</v>
-      </c>
-      <c r="G97" t="s">
-        <v>248</v>
-      </c>
-      <c r="H97" t="s">
-        <v>258</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3715,16 +3709,22 @@
         <v>44656</v>
       </c>
       <c r="C98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E98" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="F98" t="s">
-        <v>104</v>
+        <v>232</v>
+      </c>
+      <c r="G98" t="s">
+        <v>248</v>
+      </c>
+      <c r="H98" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3735,22 +3735,16 @@
         <v>44656</v>
       </c>
       <c r="C99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E99" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="F99" t="s">
-        <v>232</v>
-      </c>
-      <c r="G99" t="s">
-        <v>248</v>
-      </c>
-      <c r="H99" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3761,16 +3755,16 @@
         <v>44656</v>
       </c>
       <c r="C100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E100" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F100" t="s">
-        <v>233</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3781,41 +3775,21 @@
         <v>44656</v>
       </c>
       <c r="C101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E101" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F101" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" s="2">
-        <v>44656</v>
-      </c>
-      <c r="C102">
-        <v>100</v>
-      </c>
-      <c r="D102" t="s">
         <v>108</v>
       </c>
-      <c r="E102" t="s">
-        <v>163</v>
-      </c>
-      <c r="F102" t="s">
-        <v>108</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="G101" t="s">
         <v>272</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H101" t="s">
         <v>258</v>
       </c>
     </row>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220405.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220405.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="273">
   <si>
     <t>사이트</t>
   </si>
@@ -754,7 +754,7 @@
     <t>EDAM</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>물고기뮤직</t>
@@ -788,9 +788,6 @@
   </si>
   <si>
     <t>에버그로우</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>FEELGHOOD music</t>
@@ -1252,7 +1249,7 @@
         <v>234</v>
       </c>
       <c r="H2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1304,7 +1301,7 @@
         <v>236</v>
       </c>
       <c r="H4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1356,7 +1353,7 @@
         <v>237</v>
       </c>
       <c r="H6" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1382,7 +1379,7 @@
         <v>238</v>
       </c>
       <c r="H7" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1408,7 +1405,7 @@
         <v>239</v>
       </c>
       <c r="H8" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1434,7 +1431,7 @@
         <v>238</v>
       </c>
       <c r="H9" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1486,7 +1483,7 @@
         <v>241</v>
       </c>
       <c r="H11" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1512,7 +1509,7 @@
         <v>242</v>
       </c>
       <c r="H12" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1538,7 +1535,7 @@
         <v>243</v>
       </c>
       <c r="H13" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1564,7 +1561,7 @@
         <v>244</v>
       </c>
       <c r="H14" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1590,7 +1587,7 @@
         <v>245</v>
       </c>
       <c r="H15" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1616,7 +1613,7 @@
         <v>245</v>
       </c>
       <c r="H16" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1642,7 +1639,7 @@
         <v>246</v>
       </c>
       <c r="H17" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1668,7 +1665,7 @@
         <v>247</v>
       </c>
       <c r="H18" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1720,7 +1717,7 @@
         <v>248</v>
       </c>
       <c r="H20" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1746,7 +1743,7 @@
         <v>241</v>
       </c>
       <c r="H21" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1772,7 +1769,7 @@
         <v>245</v>
       </c>
       <c r="H22" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1798,7 +1795,7 @@
         <v>241</v>
       </c>
       <c r="H23" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1824,7 +1821,7 @@
         <v>239</v>
       </c>
       <c r="H24" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1876,7 +1873,7 @@
         <v>250</v>
       </c>
       <c r="H26" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1928,7 +1925,7 @@
         <v>251</v>
       </c>
       <c r="H28" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2058,7 +2055,7 @@
         <v>254</v>
       </c>
       <c r="H33" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2110,7 +2107,7 @@
         <v>234</v>
       </c>
       <c r="H35" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2162,7 +2159,7 @@
         <v>238</v>
       </c>
       <c r="H37" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2188,7 +2185,7 @@
         <v>255</v>
       </c>
       <c r="H38" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2266,7 +2263,7 @@
         <v>256</v>
       </c>
       <c r="H41" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2318,7 +2315,7 @@
         <v>257</v>
       </c>
       <c r="H43" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2341,10 +2338,10 @@
         <v>141</v>
       </c>
       <c r="G44" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="H44" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2370,7 +2367,7 @@
         <v>245</v>
       </c>
       <c r="H45" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2396,7 +2393,7 @@
         <v>245</v>
       </c>
       <c r="H46" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2419,10 +2416,10 @@
         <v>201</v>
       </c>
       <c r="G47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H47" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2448,7 +2445,7 @@
         <v>245</v>
       </c>
       <c r="H48" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2474,7 +2471,7 @@
         <v>246</v>
       </c>
       <c r="H49" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2497,10 +2494,10 @@
         <v>202</v>
       </c>
       <c r="G50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H50" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2526,7 +2523,7 @@
         <v>244</v>
       </c>
       <c r="H51" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2578,7 +2575,7 @@
         <v>246</v>
       </c>
       <c r="H53" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2604,7 +2601,7 @@
         <v>245</v>
       </c>
       <c r="H54" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2627,10 +2624,10 @@
         <v>205</v>
       </c>
       <c r="G55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H55" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2679,10 +2676,10 @@
         <v>207</v>
       </c>
       <c r="G57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2708,7 +2705,7 @@
         <v>241</v>
       </c>
       <c r="H58" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2786,7 +2783,7 @@
         <v>250</v>
       </c>
       <c r="H61" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2809,10 +2806,10 @@
         <v>210</v>
       </c>
       <c r="G62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H62" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2838,7 +2835,7 @@
         <v>246</v>
       </c>
       <c r="H63" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2861,10 +2858,10 @@
         <v>211</v>
       </c>
       <c r="G64" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H64" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2890,7 +2887,7 @@
         <v>245</v>
       </c>
       <c r="H65" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2916,7 +2913,7 @@
         <v>246</v>
       </c>
       <c r="H66" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2959,10 +2956,10 @@
         <v>75</v>
       </c>
       <c r="G68" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H68" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2988,7 +2985,7 @@
         <v>241</v>
       </c>
       <c r="H69" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3011,10 +3008,10 @@
         <v>213</v>
       </c>
       <c r="G70" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H70" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3037,10 +3034,10 @@
         <v>78</v>
       </c>
       <c r="G71" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H71" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3063,10 +3060,10 @@
         <v>79</v>
       </c>
       <c r="G72" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H72" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3092,7 +3089,7 @@
         <v>239</v>
       </c>
       <c r="H73" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3118,7 +3115,7 @@
         <v>250</v>
       </c>
       <c r="H74" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3141,10 +3138,10 @@
         <v>215</v>
       </c>
       <c r="G75" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H75" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3193,10 +3190,10 @@
         <v>217</v>
       </c>
       <c r="G77" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H77" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3222,7 +3219,7 @@
         <v>245</v>
       </c>
       <c r="H78" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3245,10 +3242,10 @@
         <v>219</v>
       </c>
       <c r="G79" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H79" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3274,7 +3271,7 @@
         <v>255</v>
       </c>
       <c r="H80" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3297,10 +3294,10 @@
         <v>88</v>
       </c>
       <c r="G81" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H81" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3326,7 +3323,7 @@
         <v>246</v>
       </c>
       <c r="H82" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3395,10 +3392,10 @@
         <v>224</v>
       </c>
       <c r="G85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3424,7 +3421,7 @@
         <v>241</v>
       </c>
       <c r="H86" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3450,7 +3447,7 @@
         <v>237</v>
       </c>
       <c r="H87" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3476,7 +3473,7 @@
         <v>247</v>
       </c>
       <c r="H88" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3499,10 +3496,10 @@
         <v>227</v>
       </c>
       <c r="G89" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="H89" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3528,7 +3525,7 @@
         <v>241</v>
       </c>
       <c r="H90" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3597,10 +3594,10 @@
         <v>229</v>
       </c>
       <c r="G93" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H93" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3626,7 +3623,7 @@
         <v>241</v>
       </c>
       <c r="H94" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3652,7 +3649,7 @@
         <v>246</v>
       </c>
       <c r="H95" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3678,7 +3675,7 @@
         <v>248</v>
       </c>
       <c r="H96" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3724,7 +3721,7 @@
         <v>248</v>
       </c>
       <c r="H98" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3787,10 +3784,10 @@
         <v>108</v>
       </c>
       <c r="G101" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H101" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
